--- a/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -46,6 +46,27 @@
     <t xml:space="preserve">bank_main_bank_account_id</t>
   </si>
   <si>
+    <t xml:space="preserve">invoice_financing_evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice_financing_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limite_anticipo_fatture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sezionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effetti_allo_sconto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banca_conto_effetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conto_costi_bancari</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank_company_1</t>
   </si>
   <si>
@@ -73,22 +94,46 @@
     <t xml:space="preserve">z0bug.bank_company_1a</t>
   </si>
   <si>
-    <t xml:space="preserve">IT26A0123412345990000123456</t>
+    <t xml:space="preserve">Portafoglio RiBA</t>
   </si>
   <si>
     <t xml:space="preserve">bank</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.bank13_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_152210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_152220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_731100</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank_company_1b</t>
   </si>
   <si>
     <t xml:space="preserve">IT82B0123412345991000123456</t>
   </si>
   <si>
+    <t xml:space="preserve">invoice_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank14_journal</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank_company_2a</t>
   </si>
   <si>
     <t xml:space="preserve">IT58C0246801011991000245680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxable_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_partner_1</t>
@@ -200,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -224,22 +269,15 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -286,7 +324,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,10 +334,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -320,328 +354,413 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="n">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="I6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">z0bug.bank_partner_7</t>
   </si>
   <si>
-    <t xml:space="preserve">CH9300762011623852957</t>
+    <t xml:space="preserve">CH9689144715152235363</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_7</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">z0bug.bank_partner_12</t>
   </si>
   <si>
-    <t xml:space="preserve">DE91100000000123456789</t>
+    <t xml:space="preserve">DE03500105177284191473</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_12</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">z0bug.bank_partner_13</t>
   </si>
   <si>
-    <t xml:space="preserve">DE89370400440532013000</t>
+    <t xml:space="preserve">DE64500105177324151368</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_13</t>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">z0bug.bank_partner_16</t>
   </si>
   <si>
-    <t xml:space="preserve">IT41P1601616000100000161616</t>
+    <t xml:space="preserve">IT37T0300203280682244199423</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_16</t>
@@ -357,7 +357,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -55,16 +55,16 @@
     <t xml:space="preserve">limite_anticipo_fatture</t>
   </si>
   <si>
-    <t xml:space="preserve">sezionale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">effetti_allo_sconto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banca_conto_effetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conto_costi_bancari</t>
+    <t xml:space="preserve">riba_transfer_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riba_effetti_allo_sconto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riba_transfer_account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riba_default_bank_expenses_account</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_company_1</t>
@@ -103,12 +103,12 @@
     <t xml:space="preserve">z0bug.bank13_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_152210</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.coa_152220</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.coa_242100</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.coa_731100</t>
   </si>
   <si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank14_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_243100</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_company_2a</t>
@@ -324,7 +327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +338,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -356,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -374,8 +381,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="11.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.54"/>
   </cols>
   <sheetData>
@@ -419,14 +427,14 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -443,6 +451,7 @@
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -542,7 +551,7 @@
         <v>27</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>29</v>
@@ -550,10 +559,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
@@ -572,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>100</v>
@@ -581,13 +590,13 @@
         <v>3000</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>29</v>
@@ -595,13 +604,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -610,31 +619,31 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -643,13 +652,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -658,13 +667,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -673,13 +682,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -688,13 +697,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -703,13 +712,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -718,13 +727,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -733,13 +742,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -748,13 +757,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">

--- a/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_partner_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT03T0300203280824618119925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_11</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_partner_12</t>
@@ -361,10 +370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -770,6 +779,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -82,6 +82,42 @@
     <t xml:space="preserve">z0bug.bank_bps</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.bank_company_1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafoglio RiBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank13_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_152220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_242100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_731100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT82B0123412345991000123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank14_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_243100</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank_company_2</t>
   </si>
   <si>
@@ -91,42 +127,6 @@
     <t xml:space="preserve">z0bug.bank_bct</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.bank_company_1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portafoglio RiBA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank13_journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_152220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_242100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_731100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_company_1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT82B0123412345991000123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank14_journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_243100</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_company_2a</t>
   </si>
   <si>
@@ -139,6 +139,15 @@
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.bank_company_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH6789144265467479166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_ch</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank_partner_1</t>
   </si>
   <si>
@@ -148,6 +157,51 @@
     <t xml:space="preserve">z0bug.res_partner_1</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.bank_partner_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT47A0840450510000000000321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_partner_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT03T0300203280824618119925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_partner_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE03500105177284191473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_partner_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE64500105177324151368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_partner_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT37T0300203280682244199423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.res_partner_16</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank_partner_2</t>
   </si>
   <si>
@@ -203,51 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.res_partner_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_partner_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT47A0840450510000000000321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_partner_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT03T0300203280824618119925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_partner_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE03500105177284191473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_partner_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE64500105177324151368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_partner_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT37T0300203280682244199423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.res_partner_16</t>
   </si>
 </sst>
 </file>
@@ -370,10 +379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -474,25 +483,48 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -503,30 +535,34 @@
       <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>80</v>
+      </c>
       <c r="K4" s="2" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -536,34 +572,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>2500</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,13 +590,13 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>37</v>
@@ -602,16 +611,16 @@
         <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -619,12 +628,16 @@
         <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -640,19 +653,16 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
@@ -661,13 +671,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -676,13 +686,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -691,13 +701,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -706,13 +716,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -721,17 +731,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,6 +804,21 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
+++ b/z0bug_odoo/z0bug_odoo/data/res_partner_bank.xlsx
@@ -381,27 +381,27 @@
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="16.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="27.27"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="16" style="1" width="8.54"/>
   </cols>
   <sheetData>
@@ -824,8 +824,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
